--- a/hw5.xlsx
+++ b/hw5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6811\fsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lectern.POLY.002\source\repos\FRE6811\fsl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0073F3A-8ADF-4012-9695-FAC0BB6A2E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A36DB-3AEC-42AA-B2E1-4292557FE723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1392" windowWidth="29424" windowHeight="15888" activeTab="1" xr2:uid="{F6ACD7B1-4A9C-42F3-823B-18F54D0A924E}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F6ACD7B1-4A9C-42F3-823B-18F54D0A924E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>time</t>
   </si>
@@ -92,16 +90,20 @@
   </si>
   <si>
     <t>3month fras</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="&quot;0x&quot;#"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -146,6 +148,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="63"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,10 +192,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,13 +222,82 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Handle" xfId="3" xr:uid="{7E6DB39C-4130-4CBF-A7FF-FDA51E1102A7}"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00FF0000"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -546,18 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A50FD1D-E4F0-4818-9EC1-C88408BF34A0}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,19 +650,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="18.75">
       <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="e" cm="1">
+      <c r="G3" s="1" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_xll.\BOOTSTRAP(F4:F6)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <v>3012696039728</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -596,18 +678,22 @@
       </c>
       <c r="F4" s="1" cm="1">
         <f t="array" ref="F4">_xll.\INSTRUMENT(B3:B4,D4:E4)</f>
-        <v>2432950550656</v>
-      </c>
-      <c r="G4" t="e" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">TRANSPOSE(_xll.PWFLAT.CURVE(G3))</f>
-        <v>#VALUE!</v>
+        <v>3012737019024</v>
+      </c>
+      <c r="G4" cm="1">
+        <f t="array" aca="1" ref="G4:H7" ca="1">TRANSPOSE(_xll.PWFLAT.CURVE(G3))</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f ca="1"/>
+        <v>9.9999999981013957E-2</v>
       </c>
       <c r="I4" s="6">
-        <f>C4-H4</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+        <f ca="1">C4-H4</f>
+        <v>1.8986048844205072E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -623,35 +709,78 @@
       </c>
       <c r="F5" s="1" cm="1">
         <f t="array" ref="F5">_xll.\INSTRUMENT(B4:B5,D5:E5)</f>
-        <v>2432950547104</v>
+        <v>3012737021424</v>
+      </c>
+      <c r="G5">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f ca="1"/>
+        <v>0.20000000000878007</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I6" si="1">C5-H5</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="I5:I6" ca="1" si="1">C5-H5</f>
+        <v>-8.7800600123699724E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="5">
         <f ca="1">RAND()</f>
-        <v>0.10788592699115884</v>
+        <v>0.47598112785638591</v>
       </c>
       <c r="D6">
         <v>-1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1139206698562405</v>
+        <v>1.609592639208353</v>
       </c>
       <c r="F6" s="1" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">_xll.\INSTRUMENT(B5:B6,D6:E6)</f>
-        <v>2530429652272</v>
+        <v>3012696163056</v>
+      </c>
+      <c r="G6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f ca="1"/>
+        <v>0.47598112757597866</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10788592699115884</v>
+        <v>2.8040725297273639E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="G7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f ca="1"/>
+        <v>0.47598112757597866</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="F8" cm="1">
+        <f t="array" ref="F8:G9">_xll.INSTRUMENT(F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>1.1051709180756477</v>
       </c>
     </row>
   </sheetData>
@@ -662,20 +791,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB196E-F32D-4077-8E7E-6BA84C1D11D2}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -691,7 +820,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7">
       <c r="C3">
         <f>3/12</f>
         <v>0.25</v>
@@ -703,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -717,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7">
       <c r="C5">
         <f>C4+0.25</f>
         <v>0.49</v>
@@ -729,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7">
       <c r="C6">
         <f t="shared" ref="C6:C8" si="0">C5+0.25</f>
         <v>0.74</v>
@@ -741,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7">
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0.99</v>
@@ -753,7 +882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7">
       <c r="C8">
         <f t="shared" si="0"/>
         <v>1.24</v>
@@ -765,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7">
       <c r="C9">
         <f>C8+0.25</f>
         <v>1.49</v>
@@ -779,7 +908,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -793,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7">
       <c r="C11">
         <v>3</v>
       </c>
@@ -804,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7">
       <c r="C12">
         <v>5</v>
       </c>
@@ -815,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7">
       <c r="C13">
         <v>7</v>
       </c>
@@ -826,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7">
       <c r="C14">
         <v>10</v>
       </c>
@@ -837,7 +966,13 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="2:7">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>